--- a/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H2">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I2">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J2">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N2">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O2">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P2">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q2">
-        <v>625.2944068296488</v>
+        <v>664.1190805293629</v>
       </c>
       <c r="R2">
-        <v>625.2944068296488</v>
+        <v>2656.476322117452</v>
       </c>
       <c r="S2">
-        <v>0.01503142041963235</v>
+        <v>0.01382175183463291</v>
       </c>
       <c r="T2">
-        <v>0.01503142041963235</v>
+        <v>0.007733991246974647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H3">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I3">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J3">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N3">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O3">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P3">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q3">
-        <v>401.7610631002368</v>
+        <v>456.9891806543353</v>
       </c>
       <c r="R3">
-        <v>401.7610631002368</v>
+        <v>2741.935083926012</v>
       </c>
       <c r="S3">
-        <v>0.009657913747089278</v>
+        <v>0.009510931444827201</v>
       </c>
       <c r="T3">
-        <v>0.009657913747089278</v>
+        <v>0.007982793508188807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H4">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I4">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J4">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N4">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O4">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P4">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q4">
-        <v>435.985544897906</v>
+        <v>511.5887914234314</v>
       </c>
       <c r="R4">
-        <v>435.985544897906</v>
+        <v>3069.532748540588</v>
       </c>
       <c r="S4">
-        <v>0.01048063432307065</v>
+        <v>0.01064726722020722</v>
       </c>
       <c r="T4">
-        <v>0.01048063432307065</v>
+        <v>0.008936552233445928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H5">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I5">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J5">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N5">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O5">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P5">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q5">
-        <v>189.1968920323911</v>
+        <v>244.4703112775747</v>
       </c>
       <c r="R5">
-        <v>189.1968920323911</v>
+        <v>1466.821867665448</v>
       </c>
       <c r="S5">
-        <v>0.004548094457850212</v>
+        <v>0.005087954965426864</v>
       </c>
       <c r="T5">
-        <v>0.004548094457850212</v>
+        <v>0.004270464370769576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H6">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I6">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J6">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N6">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O6">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P6">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q6">
-        <v>356.6875031824147</v>
+        <v>384.1287599115707</v>
       </c>
       <c r="R6">
-        <v>356.6875031824147</v>
+        <v>2304.772559469424</v>
       </c>
       <c r="S6">
-        <v>0.008574392734372381</v>
+        <v>0.007994548790573819</v>
       </c>
       <c r="T6">
-        <v>0.008574392734372381</v>
+        <v>0.006710050698662231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H7">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I7">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J7">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N7">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O7">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P7">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q7">
-        <v>777.7536917486574</v>
+        <v>946.5835687072321</v>
       </c>
       <c r="R7">
-        <v>777.7536917486574</v>
+        <v>3786.334274828928</v>
       </c>
       <c r="S7">
-        <v>0.01869638140994944</v>
+        <v>0.01970044764710549</v>
       </c>
       <c r="T7">
-        <v>0.01869638140994944</v>
+        <v>0.01102342825186767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H8">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J8">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N8">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O8">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P8">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q8">
-        <v>3640.324761047412</v>
+        <v>4011.8792288665</v>
       </c>
       <c r="R8">
-        <v>3640.324761047412</v>
+        <v>24071.275373199</v>
       </c>
       <c r="S8">
-        <v>0.08750958164608801</v>
+        <v>0.0834958680116698</v>
       </c>
       <c r="T8">
-        <v>0.08750958164608801</v>
+        <v>0.07008044133118624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H9">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J9">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N9">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O9">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P9">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q9">
-        <v>2338.963422756106</v>
+        <v>2760.627507076704</v>
       </c>
       <c r="R9">
-        <v>2338.963422756106</v>
+        <v>24845.64756369034</v>
       </c>
       <c r="S9">
-        <v>0.05622622267140716</v>
+        <v>0.05745461834986153</v>
       </c>
       <c r="T9">
-        <v>0.05622622267140716</v>
+        <v>0.07233492697944786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H10">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J10">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N10">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O10">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P10">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q10">
-        <v>2538.210732761253</v>
+        <v>3090.458482832034</v>
       </c>
       <c r="R10">
-        <v>2538.210732761253</v>
+        <v>27814.1263454883</v>
       </c>
       <c r="S10">
-        <v>0.06101591861535971</v>
+        <v>0.06431911302848328</v>
       </c>
       <c r="T10">
-        <v>0.06101591861535971</v>
+        <v>0.08097727350597578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H11">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J11">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N11">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O11">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P11">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q11">
-        <v>1101.462164471851</v>
+        <v>1476.82154096108</v>
       </c>
       <c r="R11">
-        <v>1101.462164471851</v>
+        <v>13291.39386864972</v>
       </c>
       <c r="S11">
-        <v>0.02647799290967461</v>
+        <v>0.0307358445821701</v>
       </c>
       <c r="T11">
-        <v>0.02647799290967461</v>
+        <v>0.03869619427222756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H12">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J12">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N12">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O12">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P12">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q12">
-        <v>2076.555196414648</v>
+        <v>2320.484741789227</v>
       </c>
       <c r="R12">
-        <v>2076.555196414648</v>
+        <v>20884.36267610304</v>
       </c>
       <c r="S12">
-        <v>0.04991820467440136</v>
+        <v>0.04829429717859889</v>
       </c>
       <c r="T12">
-        <v>0.04991820467440136</v>
+        <v>0.06080215238164792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H13">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J13">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N13">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O13">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P13">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q13">
-        <v>4527.908759689271</v>
+        <v>5718.219923234033</v>
       </c>
       <c r="R13">
-        <v>4527.908759689271</v>
+        <v>34309.3195394042</v>
       </c>
       <c r="S13">
-        <v>0.1088461682133158</v>
+        <v>0.1190085016858659</v>
       </c>
       <c r="T13">
-        <v>0.1088461682133158</v>
+        <v>0.0998871982400739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H14">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I14">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J14">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N14">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O14">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P14">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q14">
-        <v>1712.042572030099</v>
+        <v>1767.631361258952</v>
       </c>
       <c r="R14">
-        <v>1712.042572030099</v>
+        <v>10605.78816755371</v>
       </c>
       <c r="S14">
-        <v>0.04115570424973278</v>
+        <v>0.03678822477282426</v>
       </c>
       <c r="T14">
-        <v>0.04115570424973278</v>
+        <v>0.0308773965618283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H15">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I15">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J15">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N15">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O15">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P15">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q15">
-        <v>1100.01310790401</v>
+        <v>1216.330671958341</v>
       </c>
       <c r="R15">
-        <v>1100.01310790401</v>
+        <v>10946.97604762507</v>
       </c>
       <c r="S15">
-        <v>0.02644315911259414</v>
+        <v>0.02531446722364901</v>
       </c>
       <c r="T15">
-        <v>0.02644315911259414</v>
+        <v>0.03187072146221455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H16">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I16">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J16">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N16">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O16">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P16">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q16">
-        <v>1193.718999406158</v>
+        <v>1361.653983902725</v>
       </c>
       <c r="R16">
-        <v>1193.718999406158</v>
+        <v>12254.88585512453</v>
       </c>
       <c r="S16">
-        <v>0.02869575026898516</v>
+        <v>0.02833895908417675</v>
       </c>
       <c r="T16">
-        <v>0.02869575026898516</v>
+        <v>0.03567853368279185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H17">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I17">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J17">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N17">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O17">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P17">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q17">
-        <v>518.0170014594112</v>
+        <v>650.6866039242988</v>
       </c>
       <c r="R17">
-        <v>518.0170014594112</v>
+        <v>5856.179435318689</v>
       </c>
       <c r="S17">
-        <v>0.01245258433212729</v>
+        <v>0.01354219299706462</v>
       </c>
       <c r="T17">
-        <v>0.01245258433212729</v>
+        <v>0.01704951785806476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H18">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I18">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J18">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N18">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O18">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P18">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q18">
-        <v>976.6026749792771</v>
+        <v>1022.404057778283</v>
       </c>
       <c r="R18">
-        <v>976.6026749792771</v>
+        <v>9201.636520004544</v>
       </c>
       <c r="S18">
-        <v>0.02347650199684312</v>
+        <v>0.02127843571377153</v>
       </c>
       <c r="T18">
-        <v>0.02347650199684312</v>
+        <v>0.02678938852608789</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H19">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I19">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J19">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N19">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O19">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P19">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q19">
-        <v>2129.47279918663</v>
+        <v>2519.443953884928</v>
       </c>
       <c r="R19">
-        <v>2129.47279918663</v>
+        <v>15116.66372330957</v>
       </c>
       <c r="S19">
-        <v>0.05119028823404444</v>
+        <v>0.05243506791599273</v>
       </c>
       <c r="T19">
-        <v>0.05119028823404444</v>
+        <v>0.04401023413841154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H20">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I20">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J20">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N20">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O20">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P20">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q20">
-        <v>1948.954215071972</v>
+        <v>1994.15553156913</v>
       </c>
       <c r="R20">
-        <v>1948.954215071972</v>
+        <v>11964.93318941478</v>
       </c>
       <c r="S20">
-        <v>0.04685081117852134</v>
+        <v>0.0415026818007382</v>
       </c>
       <c r="T20">
-        <v>0.04685081117852134</v>
+        <v>0.03483437355986304</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H21">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I21">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J21">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N21">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O21">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P21">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q21">
-        <v>1252.232402575004</v>
+        <v>1372.204969239391</v>
       </c>
       <c r="R21">
-        <v>1252.232402575004</v>
+        <v>12349.84472315452</v>
       </c>
       <c r="S21">
-        <v>0.03010235098955421</v>
+        <v>0.02855854786758891</v>
       </c>
       <c r="T21">
-        <v>0.03010235098955421</v>
+        <v>0.03595499428891583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H22">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I22">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J22">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N22">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O22">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P22">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q22">
-        <v>1358.9052711145</v>
+        <v>1536.151645413681</v>
       </c>
       <c r="R22">
-        <v>1358.9052711145</v>
+        <v>13825.36480872313</v>
       </c>
       <c r="S22">
-        <v>0.0326666546469547</v>
+        <v>0.03197063214378185</v>
       </c>
       <c r="T22">
-        <v>0.0326666546469547</v>
+        <v>0.04025078240925817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H23">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I23">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J23">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N23">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O23">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P23">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q23">
-        <v>589.6999496198941</v>
+        <v>734.0729062474936</v>
       </c>
       <c r="R23">
-        <v>589.6999496198941</v>
+        <v>6606.656156227443</v>
       </c>
       <c r="S23">
-        <v>0.01417576707444867</v>
+        <v>0.01527764197136632</v>
       </c>
       <c r="T23">
-        <v>0.01417576707444867</v>
+        <v>0.01923443490108213</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H24">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I24">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J24">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N24">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O24">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P24">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q24">
-        <v>1111.744492191263</v>
+        <v>1153.4264168436</v>
       </c>
       <c r="R24">
-        <v>1111.744492191263</v>
+        <v>10380.8377515924</v>
       </c>
       <c r="S24">
-        <v>0.02672516926237309</v>
+        <v>0.02400529387051275</v>
       </c>
       <c r="T24">
-        <v>0.02672516926237309</v>
+        <v>0.03022248218011028</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H25">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I25">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J25">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N25">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O25">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P25">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q25">
-        <v>2424.148240037416</v>
+        <v>2842.313848482352</v>
       </c>
       <c r="R25">
-        <v>2424.148240037416</v>
+        <v>17053.88309089411</v>
       </c>
       <c r="S25">
-        <v>0.05827397615830789</v>
+        <v>0.05915468746741798</v>
       </c>
       <c r="T25">
-        <v>0.05827397615830789</v>
+        <v>0.04965020070149623</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H26">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I26">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J26">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N26">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O26">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P26">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q26">
-        <v>705.8771190711038</v>
+        <v>799.4525000892208</v>
       </c>
       <c r="R26">
-        <v>705.8771190711038</v>
+        <v>4796.715000535325</v>
       </c>
       <c r="S26">
-        <v>0.01696854413771729</v>
+        <v>0.01663833246742788</v>
       </c>
       <c r="T26">
-        <v>0.01696854413771729</v>
+        <v>0.01396502258254722</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H27">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I27">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J27">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N27">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O27">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P27">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q27">
-        <v>453.5366679737464</v>
+        <v>550.1139083319561</v>
       </c>
       <c r="R27">
-        <v>453.5366679737464</v>
+        <v>4951.025174987605</v>
       </c>
       <c r="S27">
-        <v>0.01090254487737622</v>
+        <v>0.0114490580750723</v>
       </c>
       <c r="T27">
-        <v>0.01090254487737622</v>
+        <v>0.01441427693072142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H28">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I28">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J28">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N28">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O28">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P28">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q28">
-        <v>492.1717146800281</v>
+        <v>615.8397647528548</v>
       </c>
       <c r="R28">
-        <v>492.1717146800281</v>
+        <v>5542.557882775694</v>
       </c>
       <c r="S28">
-        <v>0.01183129079870742</v>
+        <v>0.01281695504295381</v>
       </c>
       <c r="T28">
-        <v>0.01183129079870742</v>
+        <v>0.01613644879660339</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H29">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I29">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J29">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N29">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O29">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P29">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q29">
-        <v>213.5790047477818</v>
+        <v>294.2881890890138</v>
       </c>
       <c r="R29">
-        <v>213.5790047477818</v>
+        <v>2648.593701801124</v>
       </c>
       <c r="S29">
-        <v>0.00513421482441819</v>
+        <v>0.00612477255465939</v>
       </c>
       <c r="T29">
-        <v>0.00513421482441819</v>
+        <v>0.00771104200552193</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H30">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I30">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J30">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N30">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O30">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P30">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q30">
-        <v>402.6544047173298</v>
+        <v>462.4060751615457</v>
       </c>
       <c r="R30">
-        <v>402.6544047173298</v>
+        <v>4161.654676453912</v>
       </c>
       <c r="S30">
-        <v>0.009679388740753402</v>
+        <v>0.009623668714073209</v>
       </c>
       <c r="T30">
-        <v>0.009679388740753402</v>
+        <v>0.01211612562575764</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H31">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I31">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J31">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N31">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O31">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P31">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q31">
-        <v>877.984081229793</v>
+        <v>1139.477275586144</v>
       </c>
       <c r="R31">
-        <v>877.984081229793</v>
+        <v>6836.863653516863</v>
       </c>
       <c r="S31">
-        <v>0.02110581464117439</v>
+        <v>0.02371498212609922</v>
       </c>
       <c r="T31">
-        <v>0.02110581464117439</v>
+        <v>0.01990465460309896</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H32">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I32">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J32">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N32">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O32">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P32">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q32">
-        <v>701.8144609682552</v>
+        <v>710.1891111066052</v>
       </c>
       <c r="R32">
-        <v>701.8144609682552</v>
+        <v>2840.756444426421</v>
       </c>
       <c r="S32">
-        <v>0.0168708821063635</v>
+        <v>0.01478056863168236</v>
       </c>
       <c r="T32">
-        <v>0.0168708821063635</v>
+        <v>0.008270499267416159</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H33">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I33">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J33">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N33">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O33">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P33">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q33">
-        <v>450.9263490254467</v>
+        <v>488.6905820196334</v>
       </c>
       <c r="R33">
-        <v>450.9263490254467</v>
+        <v>2932.143492117801</v>
       </c>
       <c r="S33">
-        <v>0.01083979555303768</v>
+        <v>0.01017070604749632</v>
       </c>
       <c r="T33">
-        <v>0.01083979555303768</v>
+        <v>0.008536560975193256</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H34">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I34">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J34">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N34">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O34">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P34">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q34">
-        <v>489.3390326867811</v>
+        <v>547.0777751837915</v>
       </c>
       <c r="R34">
-        <v>489.3390326867811</v>
+        <v>3282.466651102749</v>
       </c>
       <c r="S34">
-        <v>0.0117631961004492</v>
+        <v>0.01138586958954138</v>
       </c>
       <c r="T34">
-        <v>0.0117631961004492</v>
+        <v>0.009556482072416687</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H35">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I35">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J35">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N35">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O35">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P35">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q35">
-        <v>212.3497561281654</v>
+        <v>261.4292498866091</v>
       </c>
       <c r="R35">
-        <v>212.3497561281654</v>
+        <v>1568.575499319654</v>
       </c>
       <c r="S35">
-        <v>0.005104664979417352</v>
+        <v>0.005440907090587922</v>
       </c>
       <c r="T35">
-        <v>0.005104664979417352</v>
+        <v>0.004566707062642784</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H36">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I36">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J36">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N36">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O36">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P36">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q36">
-        <v>400.3369373624944</v>
+        <v>410.775824020342</v>
       </c>
       <c r="R36">
-        <v>400.3369373624944</v>
+        <v>2464.654944122052</v>
       </c>
       <c r="S36">
-        <v>0.009623679260964635</v>
+        <v>0.008549131723109674</v>
       </c>
       <c r="T36">
-        <v>0.009623679260964635</v>
+        <v>0.007175527824565328</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H37">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I37">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J37">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N37">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O37">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P37">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q37">
-        <v>872.9308658111174</v>
+        <v>1012.248199091736</v>
       </c>
       <c r="R37">
-        <v>872.9308658111174</v>
+        <v>4048.992796366944</v>
       </c>
       <c r="S37">
-        <v>0.02098434065292268</v>
+        <v>0.02106707036898854</v>
       </c>
       <c r="T37">
-        <v>0.02098434065292268</v>
+        <v>0.01178812496292253</v>
       </c>
     </row>
   </sheetData>
